--- a/Racecard_20250216_9.xlsx
+++ b/Racecard_20250216_9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="299">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
   </si>
   <si>
     <t>上次名次</t>
@@ -777,6 +783,18 @@
   </si>
   <si>
     <t>PPG</t>
+  </si>
+  <si>
+    <t>2025/01/26</t>
+  </si>
+  <si>
+    <t>2024/09/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
   </si>
   <si>
     <t>黃寶妮</t>
@@ -1282,13 +1300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,25 +1580,31 @@
       <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:93">
       <c r="A2" s="2">
         <v>45704</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -1589,225 +1613,231 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L2">
         <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O2">
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R2">
         <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AE2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH2">
         <v>2024384</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK2">
         <v>1</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK2">
+      <c r="AL2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM2">
         <v>12</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>115</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>19</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>13</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>-1</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>13.18</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>34.25</v>
       </c>
-      <c r="AR2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW2">
+      <c r="AT2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AY2">
         <v>13.58</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>20.95</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>22.88</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>43.83</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>0.304</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <v>44.134</v>
       </c>
-      <c r="BF2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG2">
+      <c r="BH2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI2">
         <v>2024323</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>8</v>
       </c>
-      <c r="BI2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BJ2">
+      <c r="BK2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BL2">
         <v>73</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>118</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>16</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>2</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>10</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>13.38</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>34.05</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>270</v>
-      </c>
-      <c r="BV2">
+      <c r="BS2" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>276</v>
+      </c>
+      <c r="BX2">
         <v>13.82</v>
       </c>
-      <c r="BW2">
+      <c r="BY2">
         <v>21.07</v>
       </c>
-      <c r="BX2">
+      <c r="BZ2">
         <v>22.1</v>
       </c>
-      <c r="CB2">
+      <c r="CD2">
         <v>43.17</v>
       </c>
-      <c r="CC2">
+      <c r="CE2">
         <v>0.04999999999999999</v>
       </c>
-      <c r="CD2">
+      <c r="CF2">
         <v>43.22</v>
       </c>
-      <c r="CE2" t="s">
-        <v>274</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>107</v>
-      </c>
       <c r="CG2" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="CH2" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="CI2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="CJ2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CK2" t="s">
-        <v>289</v>
-      </c>
-      <c r="CL2">
+        <v>280</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN2">
         <v>57.71</v>
       </c>
-      <c r="CM2">
+      <c r="CO2">
         <v>57.38</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:93">
       <c r="A3" s="2">
         <v>45704</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -1816,87 +1846,87 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L3">
         <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O3">
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R3">
         <v>71</v>
       </c>
       <c r="S3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W3">
         <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG3" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>108</v>
+        <v>245</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="A4" s="2">
         <v>45704</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -1905,225 +1935,231 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4">
         <v>129</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4">
         <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W4">
         <v>7</v>
       </c>
       <c r="Y4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AA4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AD4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AE4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AH4">
         <v>2024384</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK4">
         <v>6</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK4">
+      <c r="AL4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM4">
         <v>4</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>127</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>2</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>8</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>-7</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>13.18</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>34.25</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY4">
+        <v>13.34</v>
+      </c>
+      <c r="AZ4">
+        <v>21.07</v>
+      </c>
+      <c r="BA4">
+        <v>23.53</v>
+      </c>
+      <c r="BE4">
+        <v>44.6</v>
+      </c>
+      <c r="BF4">
+        <v>0.163</v>
+      </c>
+      <c r="BG4">
+        <v>44.763</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BI4">
+        <v>2024304</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="s">
         <v>252</v>
       </c>
-      <c r="AV4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW4">
-        <v>13.34</v>
-      </c>
-      <c r="AX4">
-        <v>21.07</v>
-      </c>
-      <c r="AY4">
-        <v>23.53</v>
-      </c>
-      <c r="BC4">
-        <v>44.6</v>
-      </c>
-      <c r="BD4">
-        <v>0.163</v>
-      </c>
-      <c r="BE4">
-        <v>44.763</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>261</v>
-      </c>
-      <c r="BG4">
-        <v>2024304</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>246</v>
-      </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>9.800000000000001</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>118</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>11</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>8</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>-7</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>12.99</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>33.63</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>268</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>271</v>
-      </c>
-      <c r="BV4">
+      <c r="BS4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BX4">
         <v>13.07</v>
       </c>
-      <c r="BW4">
+      <c r="BY4">
         <v>20.72</v>
       </c>
-      <c r="BX4">
+      <c r="BZ4">
         <v>22.81</v>
       </c>
-      <c r="CB4">
+      <c r="CD4">
         <v>43.53</v>
       </c>
-      <c r="CC4">
+      <c r="CE4">
         <v>0.298</v>
       </c>
-      <c r="CD4">
+      <c r="CF4">
         <v>43.828</v>
       </c>
-      <c r="CE4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>109</v>
-      </c>
       <c r="CG4" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="CH4" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="CI4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="CJ4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CK4" t="s">
-        <v>290</v>
-      </c>
-      <c r="CL4">
+        <v>281</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>296</v>
+      </c>
+      <c r="CN4">
         <v>58.1</v>
       </c>
-      <c r="CM4">
+      <c r="CO4">
         <v>57.5</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="A5" s="2">
         <v>45704</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -2132,87 +2168,87 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L5">
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O5">
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R5">
         <v>68</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AD5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG5" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>110</v>
+        <v>245</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:93">
       <c r="A6" s="2">
         <v>45704</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -2221,225 +2257,231 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L6">
         <v>127</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O6">
         <v>9</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R6">
         <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AA6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AE6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH6">
         <v>2024041</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK6">
         <v>2</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AK6">
+      <c r="AL6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM6">
         <v>43</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>132</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>-5</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>3</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>6</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>13.05</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>33.62</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AY6">
+        <v>13.69</v>
+      </c>
+      <c r="AZ6">
+        <v>20.85</v>
+      </c>
+      <c r="BA6">
+        <v>22.48</v>
+      </c>
+      <c r="BE6">
+        <v>43.33</v>
+      </c>
+      <c r="BF6">
+        <v>-0.189</v>
+      </c>
+      <c r="BG6">
+        <v>43.141</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI6">
+        <v>2024004</v>
+      </c>
+      <c r="BJ6">
+        <v>10</v>
+      </c>
+      <c r="BK6" t="s">
         <v>253</v>
       </c>
-      <c r="AV6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW6">
-        <v>13.69</v>
-      </c>
-      <c r="AX6">
-        <v>20.85</v>
-      </c>
-      <c r="AY6">
-        <v>22.48</v>
-      </c>
-      <c r="BC6">
-        <v>43.33</v>
-      </c>
-      <c r="BD6">
-        <v>-0.189</v>
-      </c>
-      <c r="BE6">
-        <v>43.141</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG6">
-        <v>2024004</v>
-      </c>
-      <c r="BH6">
-        <v>10</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>68</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>133</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>-6</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>3</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>6</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>13.06</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>33.97</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>269</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>272</v>
-      </c>
-      <c r="BV6">
+      <c r="BS6" t="s">
+        <v>275</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>278</v>
+      </c>
+      <c r="BX6">
         <v>13.86</v>
       </c>
-      <c r="BW6">
+      <c r="BY6">
         <v>21.07</v>
       </c>
-      <c r="BX6">
+      <c r="BZ6">
         <v>22.41</v>
       </c>
-      <c r="CB6">
+      <c r="CD6">
         <v>43.48</v>
       </c>
-      <c r="CC6">
+      <c r="CE6">
         <v>-0.204</v>
       </c>
-      <c r="CD6">
+      <c r="CF6">
         <v>43.276</v>
       </c>
-      <c r="CE6" t="s">
-        <v>276</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>111</v>
-      </c>
       <c r="CG6" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="CH6" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="CI6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="CJ6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CK6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CL6">
+        <v>282</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN6">
         <v>56.83</v>
       </c>
-      <c r="CM6">
+      <c r="CO6">
         <v>56.98</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:93">
       <c r="A7" s="2">
         <v>45704</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -2448,159 +2490,165 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L7">
         <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O7">
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R7">
         <v>66</v>
       </c>
       <c r="S7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AA7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH7">
         <v>2024384</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK7">
         <v>3</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK7">
+      <c r="AL7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM7">
         <v>5.8</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>124</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>2</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>11</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>-1</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>13.18</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>34.25</v>
       </c>
-      <c r="AR7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>257</v>
-      </c>
-      <c r="AW7">
+      <c r="AT7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY7">
         <v>13.66</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>20.95</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>23.1</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>44.05</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>0.049</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>44.099</v>
       </c>
-      <c r="BF7" t="s">
-        <v>263</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>112</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>263</v>
+      <c r="BH7" t="s">
+        <v>269</v>
       </c>
       <c r="CH7" t="s">
-        <v>281</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>263</v>
-      </c>
-      <c r="CL7">
+        <v>114</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>269</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>287</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN7">
         <v>57.76</v>
       </c>
-      <c r="CM7">
+      <c r="CO7">
         <v>57.76</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:93">
       <c r="A8" s="2">
         <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -2609,159 +2657,165 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L8">
         <v>125</v>
       </c>
       <c r="M8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O8">
         <v>13</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R8">
         <v>65</v>
       </c>
       <c r="S8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="Y8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AA8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AE8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH8">
         <v>2024384</v>
       </c>
-      <c r="AI8">
-        <v>2</v>
+      <c r="AI8" t="s">
+        <v>247</v>
       </c>
       <c r="AJ8" t="s">
         <v>249</v>
       </c>
       <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM8">
         <v>7.9</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>123</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>2</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>3</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>10</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>13.18</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>34.25</v>
       </c>
-      <c r="AR8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV8" t="s">
+      <c r="AT8" t="s">
         <v>258</v>
       </c>
-      <c r="AW8">
+      <c r="AX8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY8">
         <v>13.38</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>21.11</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>23.2</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>44.31</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>-0.16</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>44.15000000000001</v>
       </c>
-      <c r="BF8" t="s">
-        <v>264</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>264</v>
+      <c r="BH8" t="s">
+        <v>270</v>
       </c>
       <c r="CH8" t="s">
-        <v>282</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>264</v>
-      </c>
-      <c r="CL8">
+        <v>115</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>270</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>288</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN8">
         <v>57.53</v>
       </c>
-      <c r="CM8">
+      <c r="CO8">
         <v>57.53</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:93">
       <c r="A9" s="2">
         <v>45704</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -2770,90 +2824,90 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L9">
         <v>125</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O9">
         <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R9">
         <v>65</v>
       </c>
       <c r="S9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W9">
         <v>6</v>
       </c>
       <c r="Y9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AC9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AE9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG9" t="s">
-        <v>244</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>114</v>
+        <v>246</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="A10" s="2">
         <v>45704</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -2862,87 +2916,87 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L10">
         <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R10">
         <v>64</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AD10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AE10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG10" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>115</v>
+        <v>245</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:93">
       <c r="A11" s="2">
         <v>45704</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -2951,84 +3005,84 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11">
         <v>124</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R11">
         <v>64</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Z11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AE11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG11" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>116</v>
+        <v>245</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:93">
       <c r="A12" s="2">
         <v>45704</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -3037,225 +3091,231 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L12">
         <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O12">
         <v>14</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R12">
         <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH12">
         <v>2024384</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK12">
         <v>10</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>250</v>
-      </c>
-      <c r="AK12">
+      <c r="AL12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM12">
         <v>22</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>122</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>0</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>6</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>8</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>13.18</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>34.25</v>
       </c>
-      <c r="AR12" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW12">
+      <c r="AT12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY12">
         <v>13.22</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>21.03</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>23.99</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>45.02</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>-0.152</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>44.868</v>
       </c>
-      <c r="BF12" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG12">
+      <c r="BH12" t="s">
+        <v>271</v>
+      </c>
+      <c r="BI12">
         <v>2024323</v>
       </c>
-      <c r="BH12">
+      <c r="BJ12">
         <v>4</v>
       </c>
-      <c r="BI12" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ12">
+      <c r="BK12" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL12">
         <v>54</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>125</v>
       </c>
-      <c r="BL12">
+      <c r="BN12">
         <v>-3</v>
       </c>
-      <c r="BM12">
+      <c r="BO12">
         <v>9</v>
       </c>
-      <c r="BN12">
+      <c r="BP12">
         <v>5</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>13.38</v>
       </c>
-      <c r="BP12">
+      <c r="BR12">
         <v>34.05</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU12" t="s">
+      <c r="BS12" t="s">
         <v>273</v>
       </c>
-      <c r="BV12">
+      <c r="BW12" t="s">
+        <v>279</v>
+      </c>
+      <c r="BX12">
         <v>13.38</v>
       </c>
-      <c r="BW12">
+      <c r="BY12">
         <v>20.67</v>
       </c>
-      <c r="BX12">
+      <c r="BZ12">
         <v>22.8</v>
       </c>
-      <c r="CB12">
+      <c r="CD12">
         <v>43.47</v>
       </c>
-      <c r="CC12">
+      <c r="CE12">
         <v>-0.14</v>
       </c>
-      <c r="CD12">
+      <c r="CF12">
         <v>43.33</v>
       </c>
-      <c r="CE12" t="s">
-        <v>277</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>117</v>
-      </c>
       <c r="CG12" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="CH12" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>289</v>
+      </c>
+      <c r="CK12" t="s">
         <v>283</v>
       </c>
-      <c r="CI12" t="s">
-        <v>277</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>288</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>292</v>
-      </c>
-      <c r="CL12">
+      <c r="CL12" t="s">
+        <v>294</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN12">
         <v>58.09</v>
       </c>
-      <c r="CM12">
+      <c r="CO12">
         <v>57.4</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:93">
       <c r="A13" s="2">
         <v>45704</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -3264,159 +3324,165 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13">
         <v>122</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O13">
         <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R13">
         <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W13">
         <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH13">
         <v>2024384</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK13">
         <v>5</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK13">
+      <c r="AL13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM13">
         <v>17</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>120</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>2</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>10</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>-3</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>13.18</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>34.25</v>
       </c>
-      <c r="AR13" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW13">
+      <c r="AT13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY13">
         <v>13.78</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>21.07</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>22.98</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>44.05</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>0.08699999999999999</v>
       </c>
-      <c r="BE13">
+      <c r="BG13">
         <v>44.137</v>
       </c>
-      <c r="BF13" t="s">
-        <v>266</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>118</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>266</v>
+      <c r="BH13" t="s">
+        <v>272</v>
       </c>
       <c r="CH13" t="s">
-        <v>284</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>266</v>
-      </c>
-      <c r="CL13">
+        <v>120</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>272</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>290</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN13">
         <v>57.92</v>
       </c>
-      <c r="CM13">
+      <c r="CO13">
         <v>57.92</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:93">
       <c r="A14" s="2">
         <v>45704</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -3425,84 +3491,84 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L14">
         <v>122</v>
       </c>
       <c r="M14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R14">
         <v>62</v>
       </c>
       <c r="S14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W14">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG14" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>119</v>
+        <v>245</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:93">
       <c r="A15" s="2">
         <v>45704</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -3511,67 +3577,67 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L15">
         <v>121</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O15">
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R15">
         <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W15">
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG15" t="s">
-        <v>243</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>120</v>
+        <v>245</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
